--- a/01_datos/parametria_Datos.xlsx
+++ b/01_datos/parametria_Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\COVID-19-Opinion\01_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E3043-2FF8-4CCC-BE25-5032D37500DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90CD2B-477C-4050-9A37-EE697054D3C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11895" yWindow="2145" windowWidth="21600" windowHeight="11385" tabRatio="233" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2145" windowWidth="21600" windowHeight="11385" tabRatio="233" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="3" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>¿Cuántas personas en su hogar tienen un trabajo por el que reciban un ingreso?</t>
   </si>
   <si>
-    <t>En su hogar ¿hay sigue manteniendo su empleo, pero le redujeron el sueldo debido a la contigencia por el Coronavirus?</t>
-  </si>
-  <si>
     <t>En su hogar ¿hay alguien que haya perdido su empleo debido a la contigencia por el Coronavirus?</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>7. 6</t>
+  </si>
+  <si>
+    <t>En su hogar ¿hay alguien que sigue manteniendo su empleo, pero le redujeron el sueldo debido a la contigencia por el Coronavirus?</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,10 +946,10 @@
         <v>58</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>70</v>
@@ -976,55 +976,55 @@
         <v>80</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="AP1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="AU1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1183,7 +1183,7 @@
         <v>43945</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>43945</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1751,7 +1751,7 @@
         <v>43919</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1820,7 +1820,7 @@
         <v>43945</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>43945</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>29</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -2987,7 +2987,7 @@
         <v>43945</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1">
         <v>35</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>34</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>35</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>36</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>37</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>36</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>36</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>38</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>39</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>38</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>40</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>41</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>42</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>43</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>44</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>45</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>46</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>47</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>48</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>49</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>50</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>51</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>52</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>53</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>54</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>55</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>56</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
